--- a/baidu_history_xlsx/baidu_为所应为.xlsx
+++ b/baidu_history_xlsx/baidu_为所应为.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
